--- a/www/terminologies/alignement-nuva-cipucd.xlsx
+++ b/www/terminologies/alignement-nuva-cipucd.xlsx
@@ -29,7 +29,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1009</t>
+    <t>1.0.1042</t>
   </si>
   <si>
     <t>Name</t>
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02</t>
+    <t>2025-12-04</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -89,13 +89,13 @@
     <t>Source</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/terminologie-nuva?vs</t>
+    <t>https://smt.esante.gouv.fr/terminologie-nuva?vs|20241106120000</t>
   </si>
   <si>
     <t>Target</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/terminologie-cip_ucd?vs</t>
+    <t>https://smt.esante.gouv.fr/terminologie-cip_ucd?vs|20241114120000</t>
   </si>
 </sst>
 </file>
